--- a/PDS/test_output/Primer_order.xlsx
+++ b/PDS/test_output/Primer_order.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1080 +436,672 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub-1</t>
+          <t>bdhA_del-1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
+          <t>ACGTCTCACATATGACTAGTgagacaactcccatgtgtgga</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub-2</t>
+          <t>bdhA_del-2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACTCGCGGACAGGCCTTCACG</t>
+          <t>AGTTCGAACTTAAGAGATCTtttgaaaccaaaaagaatccgcac</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub-3</t>
+          <t>bdhA_del-3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGT</t>
+          <t>AGGGTAATGCATGCCTGCAGacccgagtgcggattctttttggtttcaaaggattaccactcctataacttttga</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub-4</t>
+          <t>bdhA_del-4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCAATTCCAGGGGCGGGTTAAG</t>
+          <t>GGGGATCCTCTAGAGTCGACgaaaccagcagctcatcacc</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub-7</t>
+          <t>bdhA_del-7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>AGATCTCTTAAGTTCGAACTCGAGC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub-8</t>
+          <t>bdhA_del-8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>CTGCAGGCATGCATTACCCT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_G_A_sub-1</t>
+          <t>test-bdhA_del-1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGG</t>
+          <t>cgcttgagcagctggaggaa</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_G_A_sub-2</t>
+          <t>test-bdhA_del-2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GGCTTTCCGCCACAGCAACT</t>
+          <t>AGCTACACGCTGTCTTGCTTC</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_G_A_sub-3</t>
+          <t>acoA_del-1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>ACGTCTCACATATGACTAGTccgggctgttgaagaaaagc</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_G_A_sub-4</t>
+          <t>acoA_del-2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AGCCATAGAAGCCTGCATTT</t>
+          <t>AGTTCGAACTTAAGAGATCTtttgtgcgcctccttctatt</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del-1</t>
+          <t>acoA_del-3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
+          <t>AGGGTAATGCATGCCTGCAGgtgaaccctaaatagaaggaggcgcacaaagagatggcgagagtcataagca</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del-2</t>
+          <t>acoA_del-4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACCGCGGACAGGCCTTCACG</t>
+          <t>GGGGATCCTCTAGAGTCGACgccaagcaattcaagcgtga</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del-3</t>
+          <t>acoA_del-7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTTCCGTGCGCGTTGGT</t>
+          <t>AGATCTCTTAAGTTCGAACTCGAGC</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del-4</t>
+          <t>acoA_del-8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCAATTCCAGGGGCGGGTTAAG</t>
+          <t>CTGCAGGCATGCATTACCCT</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del-7</t>
+          <t>test-acoA_del-1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>agacaaaacgagacacacgtct</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del-8</t>
+          <t>test-acoA_del-2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>AGCTACACGCTGTCTTGCTTC</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_GTT_del-1</t>
+          <t>pta_del-1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGG</t>
+          <t>ACGTCTCACATATGACTAGTtcatttcagcagctgtgattga</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_GTT_del-2</t>
+          <t>pta_del-2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GGCTTTCCGCCACAGCAACT</t>
+          <t>AGTTCGAACTTAAGAGATCTtaaaattgaagacaatggcagctct</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins-1</t>
+          <t>pta_del-3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
+          <t>AGGGTAATGCATGCCTGCAGggtcgagagctgccattgtcttcaattttaaataaaacctcctcaaaaagttaca</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins-2</t>
+          <t>pta_del-4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACGCGCGCGGACAGGCCTTCACG</t>
+          <t>GGGGATCCTCTAGAGTCGACcaagcgaaaggtgattgccg</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins-3</t>
+          <t>pta_del-7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTTATTTCCGTGCGCGTTGG</t>
+          <t>AGATCTCTTAAGTTCGAACTCGAGC</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins-4</t>
+          <t>pta_del-8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCAATTCCAGGGGCGGGTTAAG</t>
+          <t>CTGCAGGCATGCATTACCCT</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins-7</t>
+          <t>test-pta_del-1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>attaatgaaatatatggttatga</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins-8</t>
+          <t>test-pta_del-2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>AGCTACACGCTGTCTTGCTTC</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_CGC_ins-1</t>
+          <t>ldh_del-1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGG</t>
+          <t>ACGTCTCACATATGACTAGTcaggctatcactgcggtcaa</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_CGC_ins-2</t>
+          <t>ldh_del-2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GGCTTTCCGCCACAGCAACT</t>
+          <t>AGTTCGAACTTAAGAGATCTtaatcatccttccagggtatgt</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_CGC_ins-3</t>
+          <t>ldh_del-3</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>AGGGTAATGCATGCCTGCAGaaagagaaacataccctggaaggatgattaccgcaactttagagtaaagggc</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_CGC_ins-4</t>
+          <t>ldh_del-4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AGCCATAGAAGCCTGCATTT</t>
+          <t>GGGGATCCTCTAGAGTCGACggaaaagcgctttgaaggca</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub-1</t>
+          <t>ldh_del-7</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
+          <t>AGATCTCTTAAGTTCGAACTCGAGC</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub-2</t>
+          <t>ldh_del-8</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACGGACGCGGACAGGCCTTCACG</t>
+          <t>CTGCAGGCATGCATTACCCT</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub-3</t>
+          <t>test-ldh_del-1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGACGACTGTCGTGAAGGCCTGTCCGCGTCCATTTCCGTGCGCGTTGGT</t>
+          <t>ttcttttttgttcataaatcagaca</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub-4</t>
+          <t>test-ldh_del-2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCAATTCCAGGGGCGGGTTAAG</t>
+          <t>AGCTACACGCTGTCTTGCTTC</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub-7</t>
+          <t>alsSD_P43_sub-1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>ACGTCTCACATATGACTAGTgctcacgctctgcaaattcc</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub-8</t>
+          <t>alsSD_P43_sub-2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>tataaaaggaggaattcaaattgacaaaagcaacaaaagaaca</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_TCC_sub-1</t>
+          <t>alsSD_P43_sub-3</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGG</t>
+          <t>AGGGTAATGCATGCCTGCAGtccgctccgtccgcgctgtttcccatatgctgataagtttcactatacactct</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_TCC_sub-2</t>
+          <t>alsSD_P43_sub-4</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GGCTTTCCGCCACAGCAACT</t>
+          <t>GGGGATCCTCTAGAGTCGACtgttcatgtacctgcatcactct</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_TCC_sub-3</t>
+          <t>alsSD_P43_sub-7</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>AGATCTCTTAAGTTCGAACTCGAGC</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_TCC_sub-4</t>
+          <t>alsSD_P43_sub-8</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TGAAGCCATAGAAGCCTGCA</t>
+          <t>CTGCAGGCATGCATTACCCT</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub-1</t>
+          <t>alsSD_P43_sub-5</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
+          <t>tttgaattcctccttttataatggt</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub-2</t>
+          <t>alsSD_P43_sub-6</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACCTATCCGTATGTGTCTCTCCGCGGACAGGCCTTCACG</t>
+          <t>AGTTCGAACTTAAGAGATCTgcatatgggaaacagcgcg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub-3</t>
+          <t>test-alsSD_P43_sub-1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGCCTGTCCGCGGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCGA</t>
+          <t>ataccgcatcaatttttgcacct</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub-4</t>
+          <t>test-alsSD_P43_sub-2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCAATTCCAGGGGCGGGTTAAG</t>
+          <t>AGCTACACGCTGTCTTGCTTC</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub-7</t>
+          <t>test-alsSD_P43_sub-3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>tgatcatcgactgcattacgc</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub-8</t>
+          <t>test-alsSD_P43_sub-4</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>tgttcatgtacctgcatcac</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_15to19_sub-1</t>
+          <t>amyE::P43_budC_ins-1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGG</t>
+          <t>ACGTCTCACATATGACTAGTactgccgttattcgctggat</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_15to19_sub-2</t>
+          <t>amyE::P43_budC_ins-2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GGCTTTCCGCCACAGCAACT</t>
+          <t>ccgcgctgtttcccatatgccaccgcccagcctaaacg</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_15to19_sub-3</t>
+          <t>amyE::P43_budC_ins-3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>AGGGTAATGCATGCCTGCAGTTGATtGACGGCGGGATGGTaTTTAACTAAatagcttctcgttcaggcagt</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_15to19_sub-4</t>
+          <t>amyE::P43_budC_ins-4</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TGAAGCCATAGAAGCCTGCA</t>
+          <t>GGGGATCCTCTAGAGTCGACcaatggggaagagaaccgct</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins-1</t>
+          <t>amyE::P43_budC_ins-7</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
+          <t>AGATCTCTTAAGTTCGAACTCGAGC</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins-2</t>
+          <t>amyE::P43_budC_ins-8</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACTTTTACGTGCAACGGCCCCTTGCGCCAGCTTGGGGCCTGAGGCCCAAAAATACGCAGCTCCGCGGACAGGCCTTCACG</t>
+          <t>CTGCAGGCATGCATTACCCT</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins-3</t>
+          <t>amyE::P43_budC_ins-5</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGG</t>
+          <t>gcatatgggaaacagcgcg</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins-4</t>
+          <t>amyE::P43_budC_ins-6</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCAATTCCAGGGGCGGGTTAAG</t>
+          <t>AGTTCGAACTTAAGAGATCTTTAGTTAAAtACCATCCCGCCGT</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins-7</t>
+          <t>test-amyE::P43_budC_ins-1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>ctcccactatgcatctgatgtgt</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins-8</t>
+          <t>test-amyE::P43_budC_ins-2</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>AGCTACACGCTGTCTTGCTTC</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_90_ins-1</t>
+          <t>test-amyE::P43_budC_ins-3</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGG</t>
+          <t>cggtttgaaaggaggaagcg</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_90_ins-2</t>
+          <t>test-amyE::P43_budC_ins-4</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GGCTTTCCGCCACAGCAACT</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_1176_90_ins-3</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_1176_90_ins-4</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>AGCCATAGAAGCCTGCATTT</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del-1</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCCAAGGCCTGTCGCAGTTTTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del-2</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>GAAGATGAGTTCTGGCTCACAACGCGAGAAACGGCAAAAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del-3</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAATTGGGGCCTATTTTGCCGTTTCTCGCGTTAGCGCCTTACTTAACCCGC</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del-4</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>CAGGTCGACTCTAGAGGATCAACTTTGCCGGGCCAAAATC</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del-7</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del-8</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_cds_del-1</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>TTTTGGGCCTCAGGCCCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_cds_del-2</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>GGCTTTCCGCCACAGCAACT</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-1</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-2</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>TGCTCAATTGGATCTGTCATCGCGGACAGGCCTTCACG</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-3</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-4</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>CAGGTCGACTCTAGAGGATCAATTCCAGGGGCGGGTTAAG</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-7</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-8</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-5</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ATGACAGATCCAATTGAGCAGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-6</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>GAAGATGAGTTCTGGCTCACCTATCCGTATGTGTCTCTCGGAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_1176_Cgl0005_ins-1</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>CGGCACCCACGAGGAAGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_1176_Cgl0005_ins-2</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>GGCTTTCCGCCACAGCAACT</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_1176_Cgl0005_ins-3</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_1176_Cgl0005_ins-4</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>AGCCATAGAAGCCTGCATTT</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-1</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCCAAGGCCTGTCGCAGTTTTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-2</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>TGCTCAATTGGATCTGTCATAACGCGAGAAACGGCAAAAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-3</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAGGACGCGGTCCGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGC</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-4</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>CAGGTCGACTCTAGAGGATCAACTTTGCCGGGCCAAAATC</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-7</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-8</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-5</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ATGACAGATCCAATTGAGCAGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-6</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>GAAGATGAGTTCTGGCTCACCTATCCGTATGTGTCTCTCGGAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_Cgl0005_sub-1</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>TTTTGGGCCTCAGGCCCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_Cgl0005_sub-2</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>GGCTTTCCGCCACAGCAACT</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_Cgl0005_sub-3</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>CTGAAGTGATGGCAGCCAGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_Cgl0005_sub-4</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>CGCCATTCCCTCATGTGAGT</t>
+          <t>tcattgatggtttctttcggt</t>
         </is>
       </c>
     </row>

--- a/PDS/test_output/Primer_order.xlsx
+++ b/PDS/test_output/Primer_order.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,55 +436,55 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>bdhA_del-1</t>
+          <t>BSU_00020-1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ACGTCTCACATATGACTAGTgagacaactcccatgtgtgga</t>
+          <t>ACGTCTCACATATGACTAGTGCATGCGATCGGCCATTATG</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>bdhA_del-2</t>
+          <t>BSU_00020-2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGTTCGAACTTAAGAGATCTtttgaaaccaaaaagaatccgcac</t>
+          <t>AGTTCGAACTTAAGAGATCTTTTTATCCTCCTAACGGATAATGT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>bdhA_del-3</t>
+          <t>BSU_00020-3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AGGGTAATGCATGCCTGCAGacccgagtgcggattctttttggtttcaaaggattaccactcctataacttttga</t>
+          <t>AGGGTAATGCATGCCTGCAGATTAATACATTATCCGTTAGGAGGATAAAATCCGATACACTGCTGCCGA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>bdhA_del-4</t>
+          <t>BSU_00020-4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GGGGATCCTCTAGAGTCGACgaaaccagcagctcatcacc</t>
+          <t>GGGGATCCTCTAGAGTCGACCGAGCTGTGCTGTAAACTGC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>bdhA_del-7</t>
+          <t>BSU_00020-7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>bdhA_del-8</t>
+          <t>BSU_00020-8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,19 +508,19 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>test-bdhA_del-1</t>
+          <t>test-BSU_00020-1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cgcttgagcagctggaggaa</t>
+          <t>TGTCCACATGTGGATAGGCTG</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>test-bdhA_del-2</t>
+          <t>test-BSU_00020-2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,55 +532,55 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>acoA_del-1</t>
+          <t>BSU_00030-1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ACGTCTCACATATGACTAGTccgggctgttgaagaaaagc</t>
+          <t>ACGTCTCACATATGACTAGTGCATCGTTTTACAGGCTCGC</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>acoA_del-2</t>
+          <t>BSU_00030-2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AGTTCGAACTTAAGAGATCTtttgtgcgcctccttctatt</t>
+          <t>AGTTCGAACTTAAGAGATCTTATATCGACCTCTTTCAAATATCAC</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>acoA_del-3</t>
+          <t>BSU_00030-3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AGGGTAATGCATGCCTGCAGgtgaaccctaaatagaaggaggcgcacaaagagatggcgagagtcataagca</t>
+          <t>AGGGTAATGCATGCCTGCAGTATTAGTGATATTTGAAAGAGGTCGATATAAGCGGGTGACACTGATTGTA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>acoA_del-4</t>
+          <t>BSU_00030-4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GGGGATCCTCTAGAGTCGACgccaagcaattcaagcgtga</t>
+          <t>GGGGATCCTCTAGAGTCGACCACGGCCTTGGATCGTATGA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>acoA_del-7</t>
+          <t>BSU_00030-7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>acoA_del-8</t>
+          <t>BSU_00030-8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,19 +604,19 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>test-acoA_del-1</t>
+          <t>test-BSU_00030-1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>agacaaaacgagacacacgtct</t>
+          <t>TCCGATACACTGCTGCCGA</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>test-acoA_del-2</t>
+          <t>test-BSU_00030-2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,55 +628,55 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>pta_del-1</t>
+          <t>BSU_00040-1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ACGTCTCACATATGACTAGTtcatttcagcagctgtgattga</t>
+          <t>ACGTCTCACATATGACTAGTCACCTCAGAAACACGCCCTA</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>pta_del-2</t>
+          <t>BSU_00040-2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AGTTCGAACTTAAGAGATCTtaaaattgaagacaatggcagctct</t>
+          <t>AGTTCGAACTTAAGAGATCTTCAGTGTCACCCGCTTTAATTG</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>pta_del-3</t>
+          <t>BSU_00040-3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AGGGTAATGCATGCCTGCAGggtcgagagctgccattgtcttcaattttaaataaaacctcctcaaaaagttaca</t>
+          <t>AGGGTAATGCATGCCTGCAGCAAGTCGTCAATTAAAGCGGGTGACACTGAAGAAATGAGGTGAGCAATTGT</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>pta_del-4</t>
+          <t>BSU_00040-4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GGGGATCCTCTAGAGTCGACcaagcgaaaggtgattgccg</t>
+          <t>GGGGATCCTCTAGAGTCGACCGGCTCTTCATGGACAACCT</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>pta_del-7</t>
+          <t>BSU_00040-7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>pta_del-8</t>
+          <t>BSU_00040-8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,19 +700,19 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>test-pta_del-1</t>
+          <t>test-BSU_00040-1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>attaatgaaatatatggttatga</t>
+          <t>AAGCGAGCATGAAGTGCTTG</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>test-pta_del-2</t>
+          <t>test-BSU_00040-2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,55 +724,55 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ldh_del-1</t>
+          <t>BSU_00050-1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ACGTCTCACATATGACTAGTcaggctatcactgcggtcaa</t>
+          <t>ACGTCTCACATATGACTAGTTCGCACCGGACATCAAATGA</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ldh_del-2</t>
+          <t>BSU_00050-2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AGTTCGAACTTAAGAGATCTtaatcatccttccagggtatgt</t>
+          <t>AGTTCGAACTTAAGAGATCTTTGCTCACCTCATTTCTTCACT</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ldh_del-3</t>
+          <t>BSU_00050-3</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AGGGTAATGCATGCCTGCAGaaagagaaacataccctggaaggatgattaccgcaactttagagtaaagggc</t>
+          <t>AGGGTAATGCATGCCTGCAGGTTAGTGAAGTGAAGAAATGAGGTGAGCAAAAATTTTTTATCACGAATATATCGT</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ldh_del-4</t>
+          <t>BSU_00050-4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GGGGATCCTCTAGAGTCGACggaaaagcgctttgaaggca</t>
+          <t>GGGGATCCTCTAGAGTCGACCTGTCAGCCCTTCCCTTACG</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ldh_del-7</t>
+          <t>BSU_00050-7</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>ldh_del-8</t>
+          <t>BSU_00050-8</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,312 +796,24 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>test-ldh_del-1</t>
+          <t>test-BSU_00050-1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ttcttttttgttcataaatcagaca</t>
+          <t>TCCAAGGCCGTGTACAAACG</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>test-ldh_del-2</t>
+          <t>test-BSU_00050-2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>AGCTACACGCTGTCTTGCTTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>alsSD_P43_sub-1</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ACGTCTCACATATGACTAGTgctcacgctctgcaaattcc</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>alsSD_P43_sub-2</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>tataaaaggaggaattcaaattgacaaaagcaacaaaagaaca</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>alsSD_P43_sub-3</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>AGGGTAATGCATGCCTGCAGtccgctccgtccgcgctgtttcccatatgctgataagtttcactatacactct</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>alsSD_P43_sub-4</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>GGGGATCCTCTAGAGTCGACtgttcatgtacctgcatcactct</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>alsSD_P43_sub-7</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>AGATCTCTTAAGTTCGAACTCGAGC</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>alsSD_P43_sub-8</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>CTGCAGGCATGCATTACCCT</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>alsSD_P43_sub-5</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>tttgaattcctccttttataatggt</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>alsSD_P43_sub-6</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>AGTTCGAACTTAAGAGATCTgcatatgggaaacagcgcg</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>test-alsSD_P43_sub-1</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ataccgcatcaatttttgcacct</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>test-alsSD_P43_sub-2</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>AGCTACACGCTGTCTTGCTTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>test-alsSD_P43_sub-3</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>tgatcatcgactgcattacgc</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>test-alsSD_P43_sub-4</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>tgttcatgtacctgcatcac</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>amyE::P43_budC_ins-1</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ACGTCTCACATATGACTAGTactgccgttattcgctggat</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>amyE::P43_budC_ins-2</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ccgcgctgtttcccatatgccaccgcccagcctaaacg</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>amyE::P43_budC_ins-3</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>AGGGTAATGCATGCCTGCAGTTGATtGACGGCGGGATGGTaTTTAACTAAatagcttctcgttcaggcagt</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>amyE::P43_budC_ins-4</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>GGGGATCCTCTAGAGTCGACcaatggggaagagaaccgct</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>amyE::P43_budC_ins-7</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>AGATCTCTTAAGTTCGAACTCGAGC</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>amyE::P43_budC_ins-8</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>CTGCAGGCATGCATTACCCT</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>amyE::P43_budC_ins-5</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>gcatatgggaaacagcgcg</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>amyE::P43_budC_ins-6</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>AGTTCGAACTTAAGAGATCTTTAGTTAAAtACCATCCCGCCGT</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>test-amyE::P43_budC_ins-1</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ctcccactatgcatctgatgtgt</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>test-amyE::P43_budC_ins-2</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>AGCTACACGCTGTCTTGCTTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>test-amyE::P43_budC_ins-3</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>cggtttgaaaggaggaagcg</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>test-amyE::P43_budC_ins-4</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>tcattgatggtttctttcggt</t>
         </is>
       </c>
     </row>
